--- a/AAII_Financials/Quarterly/CDRO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CDRO_QTR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -717,16 +717,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>83300</v>
+        <v>80100</v>
       </c>
       <c r="E8" s="3">
-        <v>41400</v>
+        <v>39800</v>
       </c>
       <c r="F8" s="3">
-        <v>73200</v>
+        <v>70300</v>
       </c>
       <c r="G8" s="3">
-        <v>31100</v>
+        <v>29900</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -746,16 +746,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>12900</v>
+        <v>12400</v>
       </c>
       <c r="E9" s="3">
-        <v>6700</v>
+        <v>6400</v>
       </c>
       <c r="F9" s="3">
-        <v>13600</v>
+        <v>13100</v>
       </c>
       <c r="G9" s="3">
-        <v>5500</v>
+        <v>5300</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -775,16 +775,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>70400</v>
+        <v>67700</v>
       </c>
       <c r="E10" s="3">
-        <v>34800</v>
+        <v>33400</v>
       </c>
       <c r="F10" s="3">
-        <v>59600</v>
+        <v>57200</v>
       </c>
       <c r="G10" s="3">
-        <v>25600</v>
+        <v>24600</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -875,7 +875,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>47900</v>
+        <v>46000</v>
       </c>
       <c r="E14" s="3">
         <v>300</v>
@@ -910,10 +910,10 @@
         <v>400</v>
       </c>
       <c r="F15" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="G15" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>3</v>
@@ -943,16 +943,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>157000</v>
+        <v>150900</v>
       </c>
       <c r="E17" s="3">
-        <v>55100</v>
+        <v>52900</v>
       </c>
       <c r="F17" s="3">
-        <v>88000</v>
+        <v>84500</v>
       </c>
       <c r="G17" s="3">
-        <v>37100</v>
+        <v>35700</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -972,16 +972,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-73700</v>
+        <v>-70800</v>
       </c>
       <c r="E18" s="3">
-        <v>-13700</v>
+        <v>-13100</v>
       </c>
       <c r="F18" s="3">
-        <v>-14800</v>
+        <v>-14200</v>
       </c>
       <c r="G18" s="3">
-        <v>-6000</v>
+        <v>-5700</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1014,7 +1014,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>4100</v>
+        <v>3900</v>
       </c>
       <c r="E20" s="3">
         <v>100</v>
@@ -1043,16 +1043,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-68800</v>
+        <v>-66200</v>
       </c>
       <c r="E21" s="3">
-        <v>-13100</v>
+        <v>-12600</v>
       </c>
       <c r="F21" s="3">
-        <v>-14400</v>
+        <v>-13800</v>
       </c>
       <c r="G21" s="3">
-        <v>-5700</v>
+        <v>-5500</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1101,16 +1101,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-69600</v>
+        <v>-66900</v>
       </c>
       <c r="E23" s="3">
-        <v>-13500</v>
+        <v>-13000</v>
       </c>
       <c r="F23" s="3">
-        <v>-15300</v>
+        <v>-14700</v>
       </c>
       <c r="G23" s="3">
-        <v>-6300</v>
+        <v>-6000</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1136,10 +1136,10 @@
         <v>200</v>
       </c>
       <c r="F24" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="G24" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
@@ -1188,16 +1188,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-70600</v>
+        <v>-67800</v>
       </c>
       <c r="E26" s="3">
-        <v>-13800</v>
+        <v>-13200</v>
       </c>
       <c r="F26" s="3">
-        <v>-16900</v>
+        <v>-16200</v>
       </c>
       <c r="G26" s="3">
-        <v>-7000</v>
+        <v>-6800</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1217,16 +1217,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-70600</v>
+        <v>-67900</v>
       </c>
       <c r="E27" s="3">
-        <v>-13800</v>
+        <v>-13300</v>
       </c>
       <c r="F27" s="3">
-        <v>-16900</v>
+        <v>-16200</v>
       </c>
       <c r="G27" s="3">
-        <v>-7000</v>
+        <v>-6800</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1362,7 +1362,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-4100</v>
+        <v>-3900</v>
       </c>
       <c r="E32" s="3">
         <v>-100</v>
@@ -1391,16 +1391,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-70600</v>
+        <v>-67900</v>
       </c>
       <c r="E33" s="3">
-        <v>-13800</v>
+        <v>-13300</v>
       </c>
       <c r="F33" s="3">
-        <v>-16900</v>
+        <v>-16200</v>
       </c>
       <c r="G33" s="3">
-        <v>-7000</v>
+        <v>-6800</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1449,16 +1449,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-70600</v>
+        <v>-67900</v>
       </c>
       <c r="E35" s="3">
-        <v>-13800</v>
+        <v>-13300</v>
       </c>
       <c r="F35" s="3">
-        <v>-16900</v>
+        <v>-16200</v>
       </c>
       <c r="G35" s="3">
-        <v>-7000</v>
+        <v>-6800</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1538,10 +1538,10 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>98500</v>
+        <v>94700</v>
       </c>
       <c r="E41" s="3">
-        <v>6800</v>
+        <v>6600</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>3</v>
@@ -1567,10 +1567,10 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="E42" s="3">
-        <v>3500</v>
+        <v>3300</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>3</v>
@@ -1596,10 +1596,10 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5300</v>
+        <v>5100</v>
       </c>
       <c r="E43" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>3</v>
@@ -1654,10 +1654,10 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E45" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>3</v>
@@ -1683,10 +1683,10 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>108600</v>
+        <v>104400</v>
       </c>
       <c r="E46" s="3">
-        <v>11500</v>
+        <v>11100</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>3</v>
@@ -1915,10 +1915,10 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>109300</v>
+        <v>105000</v>
       </c>
       <c r="E54" s="3">
-        <v>12400</v>
+        <v>12000</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>3</v>
@@ -1970,10 +1970,10 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>20400</v>
+        <v>19600</v>
       </c>
       <c r="E57" s="3">
-        <v>12800</v>
+        <v>12300</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>3</v>
@@ -1999,10 +1999,10 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="E58" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
@@ -2028,10 +2028,10 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>9300</v>
+        <v>8900</v>
       </c>
       <c r="E59" s="3">
-        <v>6700</v>
+        <v>6500</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>3</v>
@@ -2057,10 +2057,10 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>32800</v>
+        <v>31500</v>
       </c>
       <c r="E60" s="3">
-        <v>20700</v>
+        <v>19900</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>3</v>
@@ -2115,7 +2115,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>5700</v>
+        <v>5500</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>3</v>
@@ -2231,10 +2231,10 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>38700</v>
+        <v>37200</v>
       </c>
       <c r="E66" s="3">
-        <v>20800</v>
+        <v>20000</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>3</v>
@@ -2389,10 +2389,10 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-16400</v>
+        <v>-15700</v>
       </c>
       <c r="E72" s="3">
-        <v>-49100</v>
+        <v>-47100</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>3</v>
@@ -2505,10 +2505,10 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>70600</v>
+        <v>67800</v>
       </c>
       <c r="E76" s="3">
-        <v>-8400</v>
+        <v>-8100</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>3</v>
@@ -2597,16 +2597,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-70600</v>
+        <v>-67900</v>
       </c>
       <c r="E81" s="3">
-        <v>-13800</v>
+        <v>-13300</v>
       </c>
       <c r="F81" s="3">
-        <v>-16900</v>
+        <v>-16200</v>
       </c>
       <c r="G81" s="3">
-        <v>-7000</v>
+        <v>-6800</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2645,10 +2645,10 @@
         <v>400</v>
       </c>
       <c r="F83" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="G83" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -2813,13 +2813,13 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-5400</v>
+        <v>-5200</v>
       </c>
       <c r="E89" s="3">
-        <v>-4700</v>
+        <v>-4500</v>
       </c>
       <c r="F89" s="3">
-        <v>4000</v>
+        <v>3800</v>
       </c>
       <c r="G89" s="3">
         <v>-1000</v>
@@ -3100,7 +3100,7 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>92700</v>
+        <v>89100</v>
       </c>
       <c r="E100" s="3">
         <v>200</v>
@@ -3129,13 +3129,13 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
       </c>
       <c r="F101" s="3">
-        <v>-800</v>
+        <v>-700</v>
       </c>
       <c r="G101" s="3">
         <v>200</v>
@@ -3158,13 +3158,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>87200</v>
+        <v>83800</v>
       </c>
       <c r="E102" s="3">
-        <v>-4500</v>
+        <v>-4300</v>
       </c>
       <c r="F102" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="G102" s="3">
         <v>-1100</v>

--- a/AAII_Financials/Quarterly/CDRO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CDRO_QTR_FIN.xlsx
@@ -717,16 +717,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>80100</v>
+        <v>82000</v>
       </c>
       <c r="E8" s="3">
-        <v>39800</v>
+        <v>40700</v>
       </c>
       <c r="F8" s="3">
-        <v>70300</v>
+        <v>72000</v>
       </c>
       <c r="G8" s="3">
-        <v>29900</v>
+        <v>30600</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -746,16 +746,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>12400</v>
+        <v>12700</v>
       </c>
       <c r="E9" s="3">
-        <v>6400</v>
+        <v>6500</v>
       </c>
       <c r="F9" s="3">
-        <v>13100</v>
+        <v>13400</v>
       </c>
       <c r="G9" s="3">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -775,16 +775,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>67700</v>
+        <v>69200</v>
       </c>
       <c r="E10" s="3">
-        <v>33400</v>
+        <v>34200</v>
       </c>
       <c r="F10" s="3">
-        <v>57200</v>
+        <v>58600</v>
       </c>
       <c r="G10" s="3">
-        <v>24600</v>
+        <v>25200</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -875,7 +875,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>46000</v>
+        <v>47100</v>
       </c>
       <c r="E14" s="3">
         <v>300</v>
@@ -910,10 +910,10 @@
         <v>400</v>
       </c>
       <c r="F15" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="G15" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>3</v>
@@ -943,16 +943,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>150900</v>
+        <v>154400</v>
       </c>
       <c r="E17" s="3">
-        <v>52900</v>
+        <v>54200</v>
       </c>
       <c r="F17" s="3">
-        <v>84500</v>
+        <v>86500</v>
       </c>
       <c r="G17" s="3">
-        <v>35700</v>
+        <v>36500</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -972,16 +972,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-70800</v>
+        <v>-72500</v>
       </c>
       <c r="E18" s="3">
-        <v>-13100</v>
+        <v>-13400</v>
       </c>
       <c r="F18" s="3">
-        <v>-14200</v>
+        <v>-14500</v>
       </c>
       <c r="G18" s="3">
-        <v>-5700</v>
+        <v>-5900</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1014,7 +1014,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="E20" s="3">
         <v>100</v>
@@ -1043,16 +1043,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-66200</v>
+        <v>-67700</v>
       </c>
       <c r="E21" s="3">
-        <v>-12600</v>
+        <v>-12900</v>
       </c>
       <c r="F21" s="3">
-        <v>-13800</v>
+        <v>-14100</v>
       </c>
       <c r="G21" s="3">
-        <v>-5500</v>
+        <v>-5600</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1101,16 +1101,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-66900</v>
+        <v>-68400</v>
       </c>
       <c r="E23" s="3">
-        <v>-13000</v>
+        <v>-13300</v>
       </c>
       <c r="F23" s="3">
-        <v>-14700</v>
+        <v>-15100</v>
       </c>
       <c r="G23" s="3">
-        <v>-6000</v>
+        <v>-6200</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1139,7 +1139,7 @@
         <v>1500</v>
       </c>
       <c r="G24" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
@@ -1188,16 +1188,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-67800</v>
+        <v>-69400</v>
       </c>
       <c r="E26" s="3">
-        <v>-13200</v>
+        <v>-13500</v>
       </c>
       <c r="F26" s="3">
-        <v>-16200</v>
+        <v>-16600</v>
       </c>
       <c r="G26" s="3">
-        <v>-6800</v>
+        <v>-6900</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1217,16 +1217,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-67900</v>
+        <v>-69500</v>
       </c>
       <c r="E27" s="3">
-        <v>-13300</v>
+        <v>-13600</v>
       </c>
       <c r="F27" s="3">
-        <v>-16200</v>
+        <v>-16600</v>
       </c>
       <c r="G27" s="3">
-        <v>-6800</v>
+        <v>-6900</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1362,7 +1362,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-3900</v>
+        <v>-4000</v>
       </c>
       <c r="E32" s="3">
         <v>-100</v>
@@ -1391,16 +1391,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-67900</v>
+        <v>-69500</v>
       </c>
       <c r="E33" s="3">
-        <v>-13300</v>
+        <v>-13600</v>
       </c>
       <c r="F33" s="3">
-        <v>-16200</v>
+        <v>-16600</v>
       </c>
       <c r="G33" s="3">
-        <v>-6800</v>
+        <v>-6900</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1449,16 +1449,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-67900</v>
+        <v>-69500</v>
       </c>
       <c r="E35" s="3">
-        <v>-13300</v>
+        <v>-13600</v>
       </c>
       <c r="F35" s="3">
-        <v>-16200</v>
+        <v>-16600</v>
       </c>
       <c r="G35" s="3">
-        <v>-6800</v>
+        <v>-6900</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1538,10 +1538,10 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>94700</v>
+        <v>96900</v>
       </c>
       <c r="E41" s="3">
-        <v>6600</v>
+        <v>6700</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>3</v>
@@ -1567,10 +1567,10 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="E42" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>3</v>
@@ -1596,10 +1596,10 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="E43" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>3</v>
@@ -1654,7 +1654,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E45" s="3">
         <v>500</v>
@@ -1683,10 +1683,10 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>104400</v>
+        <v>106800</v>
       </c>
       <c r="E46" s="3">
-        <v>11100</v>
+        <v>11300</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>3</v>
@@ -1915,10 +1915,10 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>105000</v>
+        <v>107500</v>
       </c>
       <c r="E54" s="3">
-        <v>12000</v>
+        <v>12200</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>3</v>
@@ -1970,10 +1970,10 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>19600</v>
+        <v>20100</v>
       </c>
       <c r="E57" s="3">
-        <v>12300</v>
+        <v>12600</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>3</v>
@@ -2002,7 +2002,7 @@
         <v>3000</v>
       </c>
       <c r="E58" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
@@ -2028,10 +2028,10 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>8900</v>
+        <v>9100</v>
       </c>
       <c r="E59" s="3">
-        <v>6500</v>
+        <v>6600</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>3</v>
@@ -2057,10 +2057,10 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>31500</v>
+        <v>32300</v>
       </c>
       <c r="E60" s="3">
-        <v>19900</v>
+        <v>20400</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>3</v>
@@ -2115,7 +2115,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>5500</v>
+        <v>5600</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>3</v>
@@ -2231,10 +2231,10 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>37200</v>
+        <v>38000</v>
       </c>
       <c r="E66" s="3">
-        <v>20000</v>
+        <v>20500</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>3</v>
@@ -2389,10 +2389,10 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-15700</v>
+        <v>-16100</v>
       </c>
       <c r="E72" s="3">
-        <v>-47100</v>
+        <v>-48300</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>3</v>
@@ -2505,10 +2505,10 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>67800</v>
+        <v>69400</v>
       </c>
       <c r="E76" s="3">
-        <v>-8100</v>
+        <v>-8200</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>3</v>
@@ -2597,16 +2597,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-67900</v>
+        <v>-69500</v>
       </c>
       <c r="E81" s="3">
-        <v>-13300</v>
+        <v>-13600</v>
       </c>
       <c r="F81" s="3">
-        <v>-16200</v>
+        <v>-16600</v>
       </c>
       <c r="G81" s="3">
-        <v>-6800</v>
+        <v>-6900</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2645,10 +2645,10 @@
         <v>400</v>
       </c>
       <c r="F83" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="G83" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -2813,13 +2813,13 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-5200</v>
+        <v>-5300</v>
       </c>
       <c r="E89" s="3">
-        <v>-4500</v>
+        <v>-4600</v>
       </c>
       <c r="F89" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="G89" s="3">
         <v>-1000</v>
@@ -3100,7 +3100,7 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>89100</v>
+        <v>91200</v>
       </c>
       <c r="E100" s="3">
         <v>200</v>
@@ -3129,7 +3129,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
@@ -3158,10 +3158,10 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>83800</v>
+        <v>85800</v>
       </c>
       <c r="E102" s="3">
-        <v>-4300</v>
+        <v>-4400</v>
       </c>
       <c r="F102" s="3">
         <v>2900</v>
